--- a/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-4,91</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,72</t>
+          <t>-10,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,57%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>-12,96%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 8,14</t>
+          <t>-23,93; 11,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 6,14</t>
+          <t>-30,71; 6,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 12,01</t>
+          <t>-27,21; 15,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-22,91; 8,96</t>
+          <t>-34,87; 9,23</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>-2,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-2,56%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,72</t>
+          <t>-8,99; 4,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 5,24</t>
+          <t>-9,11; 4,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,11; 5,39</t>
+          <t>-9,54; 5,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 6,02</t>
+          <t>-9,63; 5,32</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 8,66</t>
+          <t>-2,78; 13,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 10,6</t>
+          <t>-4,85; 13,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,1</t>
+          <t>-3,01; 17,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 13,29</t>
+          <t>-5,14; 17,3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 4,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,52</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-0,17%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-5,35; 4,65</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,66; 3,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 5,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 4,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P10_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-4,91</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-10,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-6,08%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-12,96%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-4.911009654448383</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-8.735934873079787</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.06076400283847953</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.109015301917833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,93; 11,1</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-30,71; 6,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-27,21; 15,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-34,87; 9,23</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-23.93162147548568</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-28.97138103908236</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2720962877140546</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.336723599933641</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.10026200438057</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>7.780078610581477</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.1566407698723173</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.1058146885347348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-2,23</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-2,33</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,46%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,99; 4,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,11; 4,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,54; 5,49</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,63; 5,32</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-2.233288021121582</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.197219087018853</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.02464636885456405</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.02400490143281117</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,81</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,5</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.992880464553178</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.475813709856741</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.09543661849712096</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.08928790980504797</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 13,73</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-4,85; 13,72</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,01; 17,0</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-5,14; 17,3</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.827929208297235</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.450445828208705</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.05494392912316808</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.05110644806579785</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.808365241649825</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.949660508798035</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.04292855631077696</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.02189077873830041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.775516926062892</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.877696565666448</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.03005425202989825</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.05178453336764596</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.73324932731494</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.14776578946049</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.1700240853355821</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.1658845040753364</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,52</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,17%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,72%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 4,65</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,66; 3,46</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,81; 5,47</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 4,14</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.1506113563431666</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.405757843489375</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.001700778146659951</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.01579632970294906</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.35497889684924</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.458166701293434</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.05808966255727668</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.07053327697463019</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>4.651408955437644</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>3.509381799849776</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.05466300005535576</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.04124230584295126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
